--- a/Mifos Automation Excels/Client/3516-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-SP-FLAT-WAIVEPENALTY-Charges.xlsx
+++ b/Mifos Automation Excels/Client/3516-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-SP-FLAT-WAIVEPENALTY-Charges.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Charges" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Head Office</t>
-  </si>
-  <si>
-    <t>Accrual</t>
   </si>
   <si>
     <t>clickonwaivecharge</t>
@@ -564,18 +561,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -709,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,59 +1441,59 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="7">
-        <v>42095</v>
+        <v>42019</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6">
-        <v>101.92</v>
+        <v>100</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>101.92</v>
+        <v>0</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J2" s="8">
+        <v>10000</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6">
-        <v>92.05</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="8">
+        <v>10000</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>92.05</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -1504,113 +1501,11 @@
       <c r="I3" s="6">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>175</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6">
-        <v>101.36</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>101.36</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>173</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7">
-        <v>42019</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="6">
-        <v>100</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>100</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="J3" s="8">
         <v>10000</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>172</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7">
-        <v>42005</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8">
-        <v>10000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3516-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-SP-FLAT-WAIVEPENALTY-Charges.xlsx
+++ b/Mifos Automation Excels/Client/3516-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-SP-FLAT-WAIVEPENALTY-Charges.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Charges" sheetId="5" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,6 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -822,8 +821,8 @@
       <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="6">
         <v>785.8</v>
       </c>
@@ -852,9 +851,6 @@
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
         <v>100</v>
       </c>
       <c r="Q3" s="6">
@@ -874,13 +870,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>802.9</v>
+        <v>795.67</v>
       </c>
       <c r="G4" s="9">
-        <v>8411.2999999999993</v>
+        <v>8418.5300000000007</v>
       </c>
       <c r="H4" s="6">
-        <v>84.82</v>
+        <v>92.05</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -903,7 +899,6 @@
       <c r="O4" s="6">
         <v>0</v>
       </c>
-      <c r="P4" s="6"/>
       <c r="Q4" s="6">
         <v>887.72</v>
       </c>
@@ -921,13 +916,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>793.81</v>
+        <v>785.8</v>
       </c>
       <c r="G5" s="9">
-        <v>7617.49</v>
+        <v>7632.73</v>
       </c>
       <c r="H5" s="6">
-        <v>93.91</v>
+        <v>101.92</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -950,7 +945,6 @@
       <c r="O5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="6"/>
       <c r="Q5" s="6">
         <v>887.72</v>
       </c>
@@ -968,13 +962,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>812.59</v>
+        <v>812.44</v>
       </c>
       <c r="G6" s="9">
-        <v>6804.9</v>
+        <v>6820.29</v>
       </c>
       <c r="H6" s="6">
-        <v>75.13</v>
+        <v>75.28</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -997,7 +991,6 @@
       <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="6"/>
       <c r="Q6" s="6">
         <v>887.72</v>
       </c>
@@ -1015,13 +1008,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>818.37</v>
+        <v>818.21</v>
       </c>
       <c r="G7" s="9">
-        <v>5986.53</v>
+        <v>6002.08</v>
       </c>
       <c r="H7" s="6">
-        <v>69.349999999999994</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1044,7 +1037,6 @@
       <c r="O7" s="6">
         <v>0</v>
       </c>
-      <c r="P7" s="6"/>
       <c r="Q7" s="6">
         <v>887.72</v>
       </c>
@@ -1062,13 +1054,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>828.67</v>
+        <v>828.52</v>
       </c>
       <c r="G8" s="9">
-        <v>5157.8599999999997</v>
+        <v>5173.5600000000004</v>
       </c>
       <c r="H8" s="6">
-        <v>59.05</v>
+        <v>59.2</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1091,7 +1083,6 @@
       <c r="O8" s="6">
         <v>0</v>
       </c>
-      <c r="P8" s="6"/>
       <c r="Q8" s="6">
         <v>887.72</v>
       </c>
@@ -1109,13 +1100,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>835.15</v>
+        <v>834.99</v>
       </c>
       <c r="G9" s="9">
-        <v>4322.71</v>
+        <v>4338.57</v>
       </c>
       <c r="H9" s="6">
-        <v>52.57</v>
+        <v>52.73</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1138,7 +1129,6 @@
       <c r="O9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="6"/>
       <c r="Q9" s="6">
         <v>887.72</v>
       </c>
@@ -1156,13 +1146,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>843.66</v>
+        <v>843.5</v>
       </c>
       <c r="G10" s="9">
-        <v>3479.05</v>
+        <v>3495.07</v>
       </c>
       <c r="H10" s="6">
-        <v>44.06</v>
+        <v>44.22</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1185,7 +1175,6 @@
       <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="6"/>
       <c r="Q10" s="6">
         <v>887.72</v>
       </c>
@@ -1203,13 +1192,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>853.41</v>
+        <v>853.25</v>
       </c>
       <c r="G11" s="9">
-        <v>2625.64</v>
+        <v>2641.82</v>
       </c>
       <c r="H11" s="6">
-        <v>34.31</v>
+        <v>34.47</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1232,7 +1221,6 @@
       <c r="O11" s="6">
         <v>0</v>
       </c>
-      <c r="P11" s="6"/>
       <c r="Q11" s="6">
         <v>887.72</v>
       </c>
@@ -1250,13 +1238,13 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>860.96</v>
+        <v>860.8</v>
       </c>
       <c r="G12" s="9">
-        <v>1764.68</v>
+        <v>1781.02</v>
       </c>
       <c r="H12" s="6">
-        <v>26.76</v>
+        <v>26.92</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1279,7 +1267,6 @@
       <c r="O12" s="6">
         <v>0</v>
       </c>
-      <c r="P12" s="6"/>
       <c r="Q12" s="6">
         <v>887.72</v>
       </c>
@@ -1297,13 +1284,13 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>870.31</v>
+        <v>870.15</v>
       </c>
       <c r="G13" s="6">
-        <v>894.37</v>
+        <v>910.87</v>
       </c>
       <c r="H13" s="6">
-        <v>17.41</v>
+        <v>17.57</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1326,7 +1313,6 @@
       <c r="O13" s="6">
         <v>0</v>
       </c>
-      <c r="P13" s="6"/>
       <c r="Q13" s="6">
         <v>887.72</v>
       </c>
@@ -1344,13 +1330,13 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>894.37</v>
+        <v>910.87</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.1199999999999992</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1359,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>903.49</v>
+        <v>920.15</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1373,9 +1359,8 @@
       <c r="O14" s="6">
         <v>0</v>
       </c>
-      <c r="P14" s="6"/>
       <c r="Q14" s="6">
-        <v>903.49</v>
+        <v>920.15</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3516-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-SP-FLAT-WAIVEPENALTY-Charges.xlsx
+++ b/Mifos Automation Excels/Client/3516-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-SP-FLAT-WAIVEPENALTY-Charges.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,6 +261,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -303,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +344,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -704,10 +746,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,13 +766,14 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -770,20 +813,21 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -809,9 +853,10 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -847,17 +892,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>100</v>
       </c>
-      <c r="Q3" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -893,17 +939,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
-      <c r="Q4" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -939,17 +986,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
-      <c r="Q5" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -985,17 +1033,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="Q6" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1031,17 +1080,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
-      <c r="Q7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1077,17 +1127,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
-      <c r="Q8" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1123,17 +1174,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
-      <c r="Q9" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1169,17 +1221,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="Q10" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1215,17 +1268,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
-      <c r="Q11" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1261,17 +1315,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
-      <c r="Q12" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1307,17 +1362,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
-      <c r="Q13" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1353,13 +1409,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
         <v>920.15</v>
       </c>
     </row>
